--- a/acct/as/1/student_data.xlsx
+++ b/acct/as/1/student_data.xlsx
@@ -1,34 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Baby" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet state="visible" name="4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>Admission Number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Total Fees</t>
+  </si>
+  <si>
+    <t>Fees Paid</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Simon Deng Simon</t>
+  </si>
+  <si>
+    <t>1st Term</t>
+  </si>
+  <si>
+    <t>95000</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="0" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="solid"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -36,89 +83,99 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -408,79 +465,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.79" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Admission Number</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Total Fees</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Fees Paid</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Balance</t>
-        </is>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>553</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Dwoki Charles</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1st Term</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14000</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>432000</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>-418000</v>
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>61000</v>
       </c>
     </row>
   </sheetData>
